--- a/A2/cost_estimate_AC.xlsx
+++ b/A2/cost_estimate_AC.xlsx
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>952535558.3503456</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>369817.8898797751</v>
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>496377.6927108178</v>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1586639.627116211</v>
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33931.08674541409</v>
+        <v/>
       </c>
     </row>
     <row r="51">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>481016.453647761</v>
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>154697.3636438305</v>
+        <v/>
       </c>
     </row>
     <row r="53">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>52638.41409067671</v>
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2972582.029585298</v>
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>297258.2029585298</v>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3269840.232543828</v>
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2945873.58490565</v>
+        <v/>
       </c>
     </row>
     <row r="66">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9812.771118162767</v>
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2955686.356023812</v>
+        <v/>
       </c>
     </row>
   </sheetData>
